--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BCGcalc/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1335" windowWidth="14355" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="1935" windowWidth="14355" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CurentList" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="FileName">NOTES!$B$8</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="205">
   <si>
     <t>Project Name</t>
   </si>
@@ -229,6 +229,450 @@
   </si>
   <si>
     <t>ni_*</t>
+  </si>
+  <si>
+    <t>SAMPLEID</t>
+  </si>
+  <si>
+    <t>INDEX_NAME</t>
+  </si>
+  <si>
+    <t>SITETYPE</t>
+  </si>
+  <si>
+    <t>ni_Americo</t>
+  </si>
+  <si>
+    <t>ni_Gnorimo</t>
+  </si>
+  <si>
+    <t>ni_brackish</t>
+  </si>
+  <si>
+    <t>ni_Ramello</t>
+  </si>
+  <si>
+    <t>pi_Amph</t>
+  </si>
+  <si>
+    <t>pi_Bival</t>
+  </si>
+  <si>
+    <t>pi_Caen</t>
+  </si>
+  <si>
+    <t>pi_Coleo</t>
+  </si>
+  <si>
+    <t>pi_Corb</t>
+  </si>
+  <si>
+    <t>pi_Deca</t>
+  </si>
+  <si>
+    <t>pi_Dipt</t>
+  </si>
+  <si>
+    <t>pi_Ephem</t>
+  </si>
+  <si>
+    <t>pi_EPT</t>
+  </si>
+  <si>
+    <t>pi_Gast</t>
+  </si>
+  <si>
+    <t>pi_Iso</t>
+  </si>
+  <si>
+    <t>pi_NonIns</t>
+  </si>
+  <si>
+    <t>pi_Odon</t>
+  </si>
+  <si>
+    <t>pi_Oligo</t>
+  </si>
+  <si>
+    <t>pi_Pleco</t>
+  </si>
+  <si>
+    <t>pi_Trich</t>
+  </si>
+  <si>
+    <t>nt_Amph</t>
+  </si>
+  <si>
+    <t>nt_Bival</t>
+  </si>
+  <si>
+    <t>nt_Coleo</t>
+  </si>
+  <si>
+    <t>nt_CruMol</t>
+  </si>
+  <si>
+    <t>nt_Deca</t>
+  </si>
+  <si>
+    <t>nt_Dipt</t>
+  </si>
+  <si>
+    <t>nt_Ephem</t>
+  </si>
+  <si>
+    <t>nt_EPT</t>
+  </si>
+  <si>
+    <t>nt_Gast</t>
+  </si>
+  <si>
+    <t>nt_Insect</t>
+  </si>
+  <si>
+    <t>nt_Isop</t>
+  </si>
+  <si>
+    <t>nt_Oligo</t>
+  </si>
+  <si>
+    <t>nt_Pleco</t>
+  </si>
+  <si>
+    <t>nt_Ptero</t>
+  </si>
+  <si>
+    <t>nt_Trich</t>
+  </si>
+  <si>
+    <t>ni_Chiro</t>
+  </si>
+  <si>
+    <t>nt_Chiro</t>
+  </si>
+  <si>
+    <t>pi_Chiro</t>
+  </si>
+  <si>
+    <t>pi_Tanyt</t>
+  </si>
+  <si>
+    <t>nt_NonInsArachDeca_BCG_att456</t>
+  </si>
+  <si>
+    <t>pi_NonInsArachDeca_BCG_att456</t>
+  </si>
+  <si>
+    <t>pt_NonInsArachDeca_BCG_att456</t>
+  </si>
+  <si>
+    <t>nt_NonInsArachDecaClump_BCG_att456</t>
+  </si>
+  <si>
+    <t>pi_NonInsArachDecaClump_BCG_att456</t>
+  </si>
+  <si>
+    <t>pt_NonInsArachDecaClump_BCG_att456</t>
+  </si>
+  <si>
+    <t>pi_dom02_att456_nonclump</t>
+  </si>
+  <si>
+    <t>pt_Amph</t>
+  </si>
+  <si>
+    <t>pt_Bival</t>
+  </si>
+  <si>
+    <t>pt_Deca</t>
+  </si>
+  <si>
+    <t>pt_Dipt</t>
+  </si>
+  <si>
+    <t>pt_EPT</t>
+  </si>
+  <si>
+    <t>pt_Gast</t>
+  </si>
+  <si>
+    <t>pt_Isop</t>
+  </si>
+  <si>
+    <t>nt_tv_intol</t>
+  </si>
+  <si>
+    <t>nt_tv_toler</t>
+  </si>
+  <si>
+    <t>nt_ffg_col</t>
+  </si>
+  <si>
+    <t>nt_ffg_filt</t>
+  </si>
+  <si>
+    <t>nt_ffg_pred</t>
+  </si>
+  <si>
+    <t>nt_ffg_scrap</t>
+  </si>
+  <si>
+    <t>nt_ffg_shred</t>
+  </si>
+  <si>
+    <t>pi_ffg_col</t>
+  </si>
+  <si>
+    <t>pi_ffg_filt</t>
+  </si>
+  <si>
+    <t>pi_ffg_pred</t>
+  </si>
+  <si>
+    <t>pi_ffg_scrap</t>
+  </si>
+  <si>
+    <t>pi_ffg_shred</t>
+  </si>
+  <si>
+    <t>pt_ffg_col</t>
+  </si>
+  <si>
+    <t>pt_ffg_filt</t>
+  </si>
+  <si>
+    <t>pt_ffg_pred</t>
+  </si>
+  <si>
+    <t>pt_ffg_scrap</t>
+  </si>
+  <si>
+    <t>pt_ffg_shred</t>
+  </si>
+  <si>
+    <t>nt_habit_burrow</t>
+  </si>
+  <si>
+    <t>nt_habit_clmbrs</t>
+  </si>
+  <si>
+    <t>nt_habit_clngrs</t>
+  </si>
+  <si>
+    <t>nt_habit_sprawl</t>
+  </si>
+  <si>
+    <t>nt_habit_swmmrs</t>
+  </si>
+  <si>
+    <t>pi_habit_burrow</t>
+  </si>
+  <si>
+    <t>pi_habit_clmbrs</t>
+  </si>
+  <si>
+    <t>pi_habit_clngrs</t>
+  </si>
+  <si>
+    <t>pi_habit_sprawl</t>
+  </si>
+  <si>
+    <t>pi_habit_swmmrs</t>
+  </si>
+  <si>
+    <t>pt_habit_burrow</t>
+  </si>
+  <si>
+    <t>pt_habit_clmbrs</t>
+  </si>
+  <si>
+    <t>pt_habit_clngrs</t>
+  </si>
+  <si>
+    <t>pt_habit_sprawl</t>
+  </si>
+  <si>
+    <t>pt_habit_swmmrs</t>
+  </si>
+  <si>
+    <t>nt_volt_multi</t>
+  </si>
+  <si>
+    <t>nt_volt_semi</t>
+  </si>
+  <si>
+    <t>nt_volt_uni</t>
+  </si>
+  <si>
+    <t>pi_volt_multi</t>
+  </si>
+  <si>
+    <t>pi_volt_semi</t>
+  </si>
+  <si>
+    <t>pi_volt_uni</t>
+  </si>
+  <si>
+    <t>pt_volt_multi</t>
+  </si>
+  <si>
+    <t>pt_volt_semi</t>
+  </si>
+  <si>
+    <t>pt_volt_uni</t>
+  </si>
+  <si>
+    <t>pi_dom01</t>
+  </si>
+  <si>
+    <t>x_Becks</t>
+  </si>
+  <si>
+    <t>x_HBI</t>
+  </si>
+  <si>
+    <t>x_Shan_Num</t>
+  </si>
+  <si>
+    <t>x_Shan_e</t>
+  </si>
+  <si>
+    <t>x_Shan_2</t>
+  </si>
+  <si>
+    <t>x_Shan_10</t>
+  </si>
+  <si>
+    <t>x_D</t>
+  </si>
+  <si>
+    <t>x_Evenness</t>
+  </si>
+  <si>
+    <t>nt_BCG_att12</t>
+  </si>
+  <si>
+    <t>nt_BCG_att1i2</t>
+  </si>
+  <si>
+    <t>nt_BCG_att123</t>
+  </si>
+  <si>
+    <t>nt_BCG_att1i23</t>
+  </si>
+  <si>
+    <t>nt_BCG_att2</t>
+  </si>
+  <si>
+    <t>nt_BCG_att23</t>
+  </si>
+  <si>
+    <t>nt_BCG_att234</t>
+  </si>
+  <si>
+    <t>nt_BCG_att4</t>
+  </si>
+  <si>
+    <t>nt_BCG_att45</t>
+  </si>
+  <si>
+    <t>nt_BCG_att5</t>
+  </si>
+  <si>
+    <t>nt_BCG_att56</t>
+  </si>
+  <si>
+    <t>nt_BCG_att6</t>
+  </si>
+  <si>
+    <t>nt_EPT_BCG_att123</t>
+  </si>
+  <si>
+    <t>nt_EPT_BCG_att1i23</t>
+  </si>
+  <si>
+    <t>pi_BCG_att12</t>
+  </si>
+  <si>
+    <t>pi_BCG_att1i2</t>
+  </si>
+  <si>
+    <t>pi_BCG_att123</t>
+  </si>
+  <si>
+    <t>pi_BCG_att1i23</t>
+  </si>
+  <si>
+    <t>pi_BCG_att23</t>
+  </si>
+  <si>
+    <t>pi_BCG_att234</t>
+  </si>
+  <si>
+    <t>pi_BCG_att4</t>
+  </si>
+  <si>
+    <t>pi_BCG_att45</t>
+  </si>
+  <si>
+    <t>pi_BCG_att5</t>
+  </si>
+  <si>
+    <t>pi_BCG_att56</t>
+  </si>
+  <si>
+    <t>pi_BCG_att6</t>
+  </si>
+  <si>
+    <t>pi_EPT_BCG_att123</t>
+  </si>
+  <si>
+    <t>pt_BCG_att12</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i2</t>
+  </si>
+  <si>
+    <t>pt_BCG_att123</t>
+  </si>
+  <si>
+    <t>pt_BCG_att1i23</t>
+  </si>
+  <si>
+    <t>pt_BCG_att2</t>
+  </si>
+  <si>
+    <t>pt_BCG_att23</t>
+  </si>
+  <si>
+    <t>pt_BCG_att234</t>
+  </si>
+  <si>
+    <t>pt_BCG_att4</t>
+  </si>
+  <si>
+    <t>pt_BCG_att45</t>
+  </si>
+  <si>
+    <t>pt_BCG_att5</t>
+  </si>
+  <si>
+    <t>pt_BCG_att56</t>
+  </si>
+  <si>
+    <t>pt_BCG_att6</t>
+  </si>
+  <si>
+    <t>pt_EPT_BCG_att123</t>
+  </si>
+  <si>
+    <t>BCGcalc  metric.values() output</t>
+  </si>
+  <si>
+    <t>Metric.Name</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -307,7 +751,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,8 +764,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -347,6 +797,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -358,7 +823,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
@@ -382,6 +847,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
@@ -785,7 +1253,7 @@
       </c>
       <c r="B7" s="7" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BCGcalc/inst/extdata/[MetricNames.xlsx]</v>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[MetricNames.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +1352,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1114,12 +1582,923 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>43167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="15"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="15"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="15"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="15"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="15"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="15"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="15"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="15"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="15"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="15"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="15"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="15"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="15"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="15"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="15"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="15"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="15"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="15"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="15"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="15"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="15"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" s="15"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" s="15"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" s="15"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="15"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" s="15"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="15"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="15"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="15"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="15"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="15"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="15"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="15"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="15"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="15"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="15"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="15"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="15"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="15"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="15"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B85" s="15"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="15"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="15"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="15"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89" s="15"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" s="15"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="15"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="15"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93" s="15"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B94" s="15"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" s="15"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B96" s="15"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B97" s="15"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="15"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="15"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="15"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B101" s="15"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="15"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="15"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="15"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="15"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="15"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="15"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="15"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="15"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="15"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="15"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B112" s="15"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="15"/>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B114" s="15"/>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B115" s="15"/>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="15"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="15"/>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="15"/>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" s="15"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B120" s="15"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B121" s="15"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B122" s="15"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B123" s="15"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B124" s="15"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125" s="15"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B126" s="15"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="15"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B128" s="15"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B129" s="15"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B130" s="15"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B131" s="15"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B132" s="15"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B133" s="15"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B134" s="15"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B135" s="15"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B136" s="15"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B137" s="15"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138" s="15"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B139" s="15"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B140" s="15"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B141" s="15"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B142" s="15"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B143" s="15"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B144" s="15"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" s="15"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B146" s="15"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B147" s="15"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B148" s="15"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B149" s="15"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B150" s="15"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B151" s="15"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2D65A4B5-C6A8-49A6-9321-39142FC0C6ED}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3C1FFC7-6D1E-4F49-9EAF-628E3705F69D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
+    <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$190</definedName>
+    <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
   </definedNames>
@@ -58,8 +60,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Erik W. Leppo</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{5DCAEA0C-448B-4D0B-9675-9DCF37F9D7C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Erik W. Leppo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is a formula and changes automatically.  This is needed for the hyperlinks below.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="416">
   <si>
     <t>nt_total</t>
   </si>
@@ -1253,13 +1289,67 @@
   </si>
   <si>
     <t>required field for calculation</t>
+  </si>
+  <si>
+    <t>N_Taxa</t>
+  </si>
+  <si>
+    <t>BCG_Attr, Class</t>
+  </si>
+  <si>
+    <t>BCG and/or MMI</t>
+  </si>
+  <si>
+    <t>Jen.Stamp@tetratech.com</t>
+  </si>
+  <si>
+    <t>Path &amp; FileName</t>
+  </si>
+  <si>
+    <t>FileName:</t>
+  </si>
+  <si>
+    <t>TabName:</t>
+  </si>
+  <si>
+    <t>Description of Work</t>
+  </si>
+  <si>
+    <t>https://github.com/leppott/BCGcalc</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Description of work and other worksheets.</t>
+  </si>
+  <si>
+    <t>MetricMetadata</t>
+  </si>
+  <si>
+    <t>Metric names and abbreviations</t>
+  </si>
+  <si>
+    <t>Metric Names and Descriptions</t>
+  </si>
+  <si>
+    <t>Metric names  from R package BCGcalc metric.values function.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,8 +1408,63 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1338,8 +1483,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1371,12 +1528,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1460,12 +1633,41 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="5" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{7F15CFE3-868D-4E94-8690-16B614B17E27}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title 2" xfId="4" xr:uid="{D724A415-6A28-46C0-9E10-E9FA9413FE32}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1476,6 +1678,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DD2970EE-5024-45C7-8201-9B9CE74AE011}" name="Table13" displayName="Table13" ref="A15:C17" totalsRowShown="0">
+  <autoFilter ref="A15:C17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{64122937-D68B-4020-AE2F-B5F31372CA75}" name="Worksheet"/>
+    <tableColumn id="2" xr3:uid="{43DE3D1B-6A04-4CD4-93F3-AD3EABD971E2}" name="Descriptions"/>
+    <tableColumn id="3" xr3:uid="{5EC94084-730F-449E-BAA5-3BC78FFEF34C}" name="Link" dataDxfId="0">
+      <calculatedColumnFormula>HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1799,14 +2015,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3">
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,7 +2128,9 @@
       <c r="B9" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>398</v>
+      </c>
       <c r="D9" s="17" t="s">
         <v>383</v>
       </c>
@@ -2603,7 +2823,7 @@
         <v>373</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>383</v>
@@ -2619,7 +2839,7 @@
         <v>374</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="D59" s="17" t="s">
         <v>383</v>
@@ -4509,4 +4729,142 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE77FF11-2F6C-4E81-A93D-9AFF2BC27068}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="34" t="str">
+        <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
+        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[MetricNames.xlsx]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>403</v>
+      </c>
+      <c r="B8" s="34" t="str">
+        <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
+        <v>[MetricNames.xlsx]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>404</v>
+      </c>
+      <c r="B9" s="35" t="str">
+        <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
+        <v>NOTES</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="38" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
+        <v>NOTES</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C17" s="39" t="str">
+        <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
+        <v>MetricMetadata</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8" xr:uid="{5EF3DC54-5516-4A16-8950-B18AD937A10D}">
+      <formula1>""</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{FB228F59-1020-4061-AC4D-14560B8C12D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="91" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;D&amp;CPage &amp;P of &amp;N&amp;R&amp;F</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/inst/extdata/MetricNames.xlsx
+++ b/inst/extdata/MetricNames.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BCGcalc/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D3C1FFC7-6D1E-4F49-9EAF-628E3705F69D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7471B6F-5583-4187-B55B-EEF80FFD03FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MetricMetadata" sheetId="3" r:id="rId1"/>
     <sheet name="NOTES" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MetricMetadata!$A$5:$F$196</definedName>
     <definedName name="FileName" localSheetId="1">NOTES!$B$8</definedName>
     <definedName name="FileName">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">MetricMetadata!$A:$A,MetricMetadata!$5:$5</definedName>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="428">
   <si>
     <t>nt_total</t>
   </si>
@@ -313,48 +313,21 @@
     <t>nt_habit_burrow</t>
   </si>
   <si>
-    <t>nt_habit_clmbrs</t>
-  </si>
-  <si>
-    <t>nt_habit_clngrs</t>
-  </si>
-  <si>
     <t>nt_habit_sprawl</t>
   </si>
   <si>
-    <t>nt_habit_swmmrs</t>
-  </si>
-  <si>
     <t>pi_habit_burrow</t>
   </si>
   <si>
-    <t>pi_habit_clmbrs</t>
-  </si>
-  <si>
-    <t>pi_habit_clngrs</t>
-  </si>
-  <si>
     <t>pi_habit_sprawl</t>
   </si>
   <si>
-    <t>pi_habit_swmmrs</t>
-  </si>
-  <si>
     <t>pt_habit_burrow</t>
   </si>
   <si>
-    <t>pt_habit_clmbrs</t>
-  </si>
-  <si>
-    <t>pt_habit_clngrs</t>
-  </si>
-  <si>
     <t>pt_habit_sprawl</t>
   </si>
   <si>
-    <t>pt_habit_swmmrs</t>
-  </si>
-  <si>
     <t>nt_volt_multi</t>
   </si>
   <si>
@@ -1343,6 +1316,69 @@
   </si>
   <si>
     <t>Metric names  from R package BCGcalc metric.values function.</t>
+  </si>
+  <si>
+    <t>nt_Nemour</t>
+  </si>
+  <si>
+    <t>nt_Hepta</t>
+  </si>
+  <si>
+    <t>nt_Ephemerellid</t>
+  </si>
+  <si>
+    <t>nt_Perlid</t>
+  </si>
+  <si>
+    <t>nt_Rhya</t>
+  </si>
+  <si>
+    <t>nt_Tipulid</t>
+  </si>
+  <si>
+    <t>number of taxa - Family Tipulidae</t>
+  </si>
+  <si>
+    <t>number of taxa - Genus Rhyacophila</t>
+  </si>
+  <si>
+    <t>number of taxa - Family Perlidae</t>
+  </si>
+  <si>
+    <t>number of taxa - Family Nemouridae</t>
+  </si>
+  <si>
+    <t>number of taxa - Family Heptageniidae</t>
+  </si>
+  <si>
+    <t>number of taxa - Family Ephemerellidae</t>
+  </si>
+  <si>
+    <t>nt_habit_climb</t>
+  </si>
+  <si>
+    <t>nt_habit_cling</t>
+  </si>
+  <si>
+    <t>nt_habit_swim</t>
+  </si>
+  <si>
+    <t>pi_habit_climb</t>
+  </si>
+  <si>
+    <t>pi_habit_cling</t>
+  </si>
+  <si>
+    <t>pi_habit_swim</t>
+  </si>
+  <si>
+    <t>pt_habit_climb</t>
+  </si>
+  <si>
+    <t>pt_habit_cling</t>
+  </si>
+  <si>
+    <t>pt_habit_swim</t>
   </si>
 </sst>
 </file>
@@ -2018,13 +2054,13 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,10 +2080,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2056,33 +2092,33 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>43355</v>
+        <v>43411</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
-        <f>SUBTOTAL(3,A6:A190)</f>
-        <v>185</v>
+        <f>SUBTOTAL(3,A6:A196)</f>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -2102,7 +2138,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -2114,7 +2150,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -2126,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="1"/>
@@ -2142,10 +2178,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -2156,10 +2192,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -2170,15 +2206,15 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="9" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2186,10 +2222,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
@@ -2200,10 +2236,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
@@ -2214,10 +2250,10 @@
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
@@ -2228,10 +2264,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
@@ -2242,10 +2278,10 @@
         <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
@@ -2256,10 +2292,10 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
@@ -2270,10 +2306,10 @@
         <v>14</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
@@ -2284,10 +2320,10 @@
         <v>15</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
@@ -2298,10 +2334,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
@@ -2312,10 +2348,10 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
@@ -2326,10 +2362,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
@@ -2340,10 +2376,10 @@
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
@@ -2354,10 +2390,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D25" s="17"/>
       <c r="E25" s="17"/>
@@ -2368,10 +2404,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
@@ -2382,10 +2418,10 @@
         <v>22</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D27" s="17"/>
       <c r="E27" s="17"/>
@@ -2396,10 +2432,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -2410,10 +2446,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="17"/>
@@ -2424,13 +2460,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="7"/>
@@ -2440,10 +2476,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
@@ -2454,10 +2490,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
@@ -2468,10 +2504,10 @@
         <v>27</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
@@ -2482,10 +2518,10 @@
         <v>28</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
@@ -2496,10 +2532,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -2510,10 +2546,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="17"/>
@@ -2524,10 +2560,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="17"/>
@@ -2535,43 +2571,43 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>213</v>
+        <v>409</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="E38" s="20"/>
+        <v>350</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>214</v>
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
+        <v>346</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="20"/>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D40" s="17"/>
       <c r="E40" s="17"/>
@@ -2579,13 +2615,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>216</v>
+        <v>408</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
@@ -2593,13 +2629,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="17"/>
@@ -2607,27 +2643,27 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>227</v>
+      <c r="A44" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>416</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="17"/>
@@ -2635,13 +2671,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -2649,13 +2685,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>220</v>
+        <v>410</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>415</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D46" s="17"/>
       <c r="E46" s="17"/>
@@ -2663,13 +2699,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
@@ -2677,185 +2713,181 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
       <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
+      <c r="A49" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>379</v>
+        <v>412</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
       <c r="F50" s="7"/>
     </row>
-    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>379</v>
+        <v>40</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="13"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>149</v>
+        <v>44</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>382</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D57" s="16"/>
       <c r="E57" s="16"/>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="D58" s="17"/>
       <c r="E58" s="17"/>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="E59" s="17"/>
+        <v>372</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
       <c r="F59" s="7"/>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16"/>
@@ -2863,333 +2895,337 @@
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="7"/>
+        <v>372</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="7"/>
+        <v>373</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="13"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="7"/>
+        <v>141</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="13"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E64" s="17"/>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E65" s="17"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
       <c r="F66" s="7"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E67" s="16"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>262</v>
+        <v>146</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="D68" s="17"/>
-      <c r="E68" s="17" t="s">
-        <v>383</v>
-      </c>
+      <c r="E68" s="17"/>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>262</v>
+        <v>366</v>
       </c>
       <c r="D69" s="17"/>
-      <c r="E69" s="17" t="s">
-        <v>383</v>
-      </c>
+      <c r="E69" s="17"/>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+      <c r="E76" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>356</v>
+        <v>253</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
+      <c r="E77" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
+      <c r="E78" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>355</v>
+        <v>253</v>
       </c>
       <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="E79" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>242</v>
+        <v>158</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
+        <v>253</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>356</v>
+        <v>253</v>
       </c>
       <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
+      <c r="E81" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
@@ -3197,13 +3233,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C83" s="23" t="s">
-        <v>263</v>
+        <v>230</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
@@ -3211,13 +3247,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>263</v>
+        <v>231</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
@@ -3225,13 +3261,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>264</v>
+        <v>50</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>346</v>
       </c>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
@@ -3239,27 +3275,27 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+        <v>51</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
       <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>264</v>
+        <v>52</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="D87" s="17"/>
       <c r="E87" s="17"/>
@@ -3267,13 +3303,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>264</v>
+        <v>235</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
@@ -3281,13 +3317,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
@@ -3295,13 +3331,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
@@ -3309,13 +3345,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>273</v>
+        <v>56</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>258</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
@@ -3323,13 +3359,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>274</v>
+        <v>57</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
@@ -3337,13 +3373,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>275</v>
+        <v>58</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>260</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D93" s="17"/>
       <c r="E93" s="17"/>
@@ -3351,13 +3387,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
@@ -3365,13 +3401,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
@@ -3379,13 +3415,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
@@ -3393,27 +3429,27 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
-      <c r="F97" s="9"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>280</v>
+        <v>63</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
@@ -3421,13 +3457,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>281</v>
+        <v>64</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
@@ -3435,13 +3471,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>247</v>
+        <v>65</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
@@ -3449,13 +3485,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>249</v>
+        <v>66</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
@@ -3463,97 +3499,97 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
       <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="7"/>
+        <v>255</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>251</v>
+        <v>69</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
       <c r="F104" s="7"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>252</v>
+        <v>70</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+        <v>255</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
       <c r="F105" s="7"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>253</v>
+        <v>71</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>238</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
+        <v>256</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>254</v>
+      <c r="A107" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>240</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+        <v>256</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
       <c r="F107" s="7"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>79</v>
+      <c r="A108" s="9" t="s">
+        <v>420</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
@@ -3561,27 +3597,27 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B109" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="23" t="s">
         <v>256</v>
-      </c>
-      <c r="C109" s="23" t="s">
-        <v>265</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
       <c r="F109" s="7"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>81</v>
+      <c r="A110" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
@@ -3589,41 +3625,41 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="7"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>259</v>
+      <c r="A112" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="7"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>260</v>
+      <c r="A113" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
@@ -3631,27 +3667,27 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>261</v>
+        <v>74</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="7"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>282</v>
+      <c r="A115" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
@@ -3659,41 +3695,41 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
       <c r="F116" s="7"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>284</v>
+      <c r="A117" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="7"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>285</v>
+      <c r="A118" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
@@ -3701,27 +3737,27 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>286</v>
+        <v>76</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>287</v>
+      <c r="A120" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>252</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
@@ -3729,13 +3765,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>288</v>
+        <v>77</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>273</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
@@ -3743,13 +3779,13 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>289</v>
+        <v>78</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
@@ -3757,13 +3793,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>290</v>
+        <v>79</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
@@ -3771,13 +3807,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>357</v>
+        <v>80</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C124" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
@@ -3785,13 +3821,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>396</v>
+        <v>277</v>
+      </c>
+      <c r="C125" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
@@ -3799,13 +3835,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C126" s="17" t="s">
-        <v>396</v>
+        <v>278</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
@@ -3813,13 +3849,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C127" s="17" t="s">
-        <v>396</v>
+        <v>279</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
@@ -3827,13 +3863,13 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C128" s="17" t="s">
-        <v>396</v>
+        <v>84</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
@@ -3841,13 +3877,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C129" s="17" t="s">
-        <v>396</v>
+        <v>281</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>257</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
@@ -3855,13 +3891,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C130" s="17" t="s">
-        <v>396</v>
+        <v>86</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
@@ -3869,13 +3905,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
@@ -3883,13 +3919,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
@@ -3897,13 +3933,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
@@ -3911,13 +3947,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
@@ -3925,27 +3961,27 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
       <c r="F135" s="7"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>395</v>
+      <c r="A136" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
@@ -3953,13 +3989,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>392</v>
+        <v>166</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
@@ -3967,13 +4003,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>393</v>
+        <v>167</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
@@ -3981,13 +4017,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>394</v>
+        <v>168</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
@@ -3995,13 +4031,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
@@ -4009,27 +4045,27 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>305</v>
+        <v>88</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
       <c r="F141" s="7"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C142" s="23" t="s">
-        <v>363</v>
+      <c r="A142" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C142" s="17" t="s">
+        <v>356</v>
       </c>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
@@ -4037,199 +4073,199 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C143" s="23" t="s">
-        <v>363</v>
+        <v>90</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>356</v>
       </c>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
-      <c r="F143" s="11"/>
+      <c r="F143" s="7"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>363</v>
+        <v>91</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>356</v>
       </c>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
-      <c r="F144" s="11"/>
+      <c r="F144" s="7"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C145" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C145" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D145" s="16"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="11"/>
+      <c r="F145" s="7"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C146" s="23" t="s">
-        <v>363</v>
+        <v>293</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>348</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
-      <c r="F146" s="11"/>
+      <c r="F146" s="7"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C147" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="D147" s="16"/>
       <c r="E147" s="16"/>
-      <c r="F147" s="13"/>
+      <c r="F147" s="7"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>310</v>
+        <v>169</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="C148" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
-      <c r="F148" s="13"/>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>311</v>
+        <v>170</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="C149" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="13"/>
+      <c r="F149" s="11"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C150" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="13"/>
+      <c r="F150" s="11"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C151" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D151" s="16"/>
+        <v>354</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="E151" s="16"/>
-      <c r="F151" s="13"/>
+      <c r="F151" s="11"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C152" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="13"/>
+      <c r="F152" s="11"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C153" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D153" s="16"/>
+        <v>354</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="E153" s="16"/>
-      <c r="F153" s="7"/>
+      <c r="F153" s="13"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C154" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="7"/>
+      <c r="F154" s="13"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C155" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="7"/>
+      <c r="F155" s="13"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C156" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
@@ -4237,57 +4273,55 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>319</v>
+        <v>171</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="C157" s="23" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="11"/>
+      <c r="F157" s="13"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>320</v>
+        <v>102</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="C158" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D158" s="16"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="11"/>
+      <c r="F158" s="13"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>321</v>
+        <v>103</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C159" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
-      <c r="F159" s="11"/>
+      <c r="F159" s="7"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>322</v>
+        <v>104</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C160" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
@@ -4295,13 +4329,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C161" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
@@ -4309,71 +4343,71 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C162" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
-      <c r="F162" s="7"/>
+      <c r="F162" s="13"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>325</v>
+        <v>107</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>310</v>
       </c>
       <c r="C163" s="23" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
-      <c r="F163" s="7"/>
+      <c r="F163" s="11"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>326</v>
+        <v>108</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>311</v>
       </c>
       <c r="C164" s="23" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E164" s="16"/>
-      <c r="F164" s="7"/>
+      <c r="F164" s="11"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>327</v>
+        <v>172</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="C165" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
-      <c r="F165" s="7"/>
+      <c r="F165" s="11"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>328</v>
+        <v>173</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C166" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
@@ -4381,13 +4415,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C167" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
@@ -4395,13 +4429,13 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C168" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
@@ -4409,13 +4443,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C169" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
@@ -4423,27 +4457,29 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C170" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D170" s="16"/>
+        <v>354</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="E170" s="16"/>
       <c r="F170" s="7"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C171" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
@@ -4451,29 +4487,27 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C172" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D172" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D172" s="16"/>
       <c r="E172" s="16"/>
       <c r="F172" s="7"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C173" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
@@ -4481,13 +4515,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>336</v>
+        <v>175</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="C174" s="23" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
@@ -4495,13 +4529,13 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>337</v>
+        <v>115</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="C175" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
@@ -4509,13 +4543,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>338</v>
+        <v>116</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C176" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -4523,13 +4557,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C177" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
@@ -4537,27 +4571,29 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C178" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D178" s="16"/>
+        <v>354</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="E178" s="16"/>
       <c r="F178" s="7"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C179" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
@@ -4565,13 +4601,13 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>342</v>
+        <v>120</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>327</v>
       </c>
       <c r="C180" s="23" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
@@ -4579,13 +4615,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>343</v>
+        <v>176</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
@@ -4593,13 +4629,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>344</v>
+        <v>177</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
@@ -4607,13 +4643,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C183" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -4621,13 +4657,13 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C184" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
@@ -4635,13 +4671,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C185" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
@@ -4649,13 +4685,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C186" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -4663,13 +4699,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="C187" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -4677,29 +4713,27 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C188" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="D188" s="17" t="s">
-        <v>383</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D188" s="16"/>
       <c r="E188" s="16"/>
       <c r="F188" s="7"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C189" s="23" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
@@ -4707,20 +4741,106 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>352</v>
+        <v>178</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>337</v>
       </c>
       <c r="C190" s="23" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
       <c r="F190" s="7"/>
     </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="C191" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="7"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="7"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C193" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="7"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C194" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D194" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E194" s="16"/>
+      <c r="F194" s="7"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C195" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="7"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B196" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:F190" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:F196" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter>
@@ -4738,7 +4858,7 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -4751,18 +4871,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,16 +4892,16 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B7" s="34" t="str">
         <f ca="1">LEFT(CELL("filename",B7),FIND("]",CELL("filename",B7)))</f>
-        <v>C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\BCGcalc\inst\extdata\[MetricNames.xlsx]</v>
+        <v>https://tetratechinc-my.sharepoint.com/personal/erik_leppo_tetratech_com/Documents/MyDocs_OneDrive/GitHub/BCGcalc/inst/extdata/[MetricNames.xlsx]</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B8" s="34" t="str">
         <f ca="1">MID(CELL("filename",B8),FIND("[",CELL("filename",B8)),(FIND("]",CELL("filename",B8))-FIND("[",CELL("filename",B8)))+1)</f>
@@ -4790,7 +4910,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B9" s="35" t="str">
         <f ca="1">MID(CELL("filename",B9),FIND("]",CELL("filename",B9))+1,LEN(CELL("filename",B9))-FIND("]",CELL("filename",B9)))</f>
@@ -4799,36 +4919,36 @@
     </row>
     <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="36" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="B16" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C16" s="38" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A16&amp;"!A1",A16)</f>
@@ -4837,10 +4957,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="C17" s="39" t="str">
         <f ca="1">HYPERLINK(FileName&amp;A17&amp;"!A1",A17)</f>
